--- a/Santa's Toy Factory.xlsx
+++ b/Santa's Toy Factory.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Products-MongoDB" sheetId="1" r:id="rId1"/>
-    <sheet name="SQLServer" sheetId="9" r:id="rId2"/>
-    <sheet name="ExcelReportsImport" sheetId="2" r:id="rId3"/>
+    <sheet name="ExcelReportsImport" sheetId="2" r:id="rId2"/>
+    <sheet name="SQLServer" sheetId="9" r:id="rId3"/>
     <sheet name="PDFReport" sheetId="3" r:id="rId4"/>
     <sheet name="XMLReport" sheetId="4" r:id="rId5"/>
     <sheet name="JSONReport" sheetId="5" r:id="rId6"/>
     <sheet name="XMLDataImport" sheetId="6" r:id="rId7"/>
-    <sheet name="ExcelDataReport" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
+    <sheet name="SQLLite DB" sheetId="8" r:id="rId8"/>
+    <sheet name="ExcelDataReport" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>Column Names</t>
   </si>
@@ -63,9 +63,6 @@
     <t>nvarchar</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>PK, Identity, Unique</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>fluffy bunny toy playstation, etc.</t>
   </si>
   <si>
-    <t>24.34</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>Sony</t>
   </si>
   <si>
-    <t>NaughtyOrGood</t>
-  </si>
-  <si>
-    <t>Delivery Report</t>
-  </si>
-  <si>
     <t>Product report</t>
   </si>
   <si>
@@ -171,18 +159,6 @@
     <t>FK_Products</t>
   </si>
   <si>
-    <t>&lt;vendor; atr vendor name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Deliveries&gt;</t>
-  </si>
-  <si>
-    <t>&lt;summary; atr date&gt;</t>
-  </si>
-  <si>
-    <t>&lt;product; atr amount&gt; total value</t>
-  </si>
-  <si>
     <t>product-id</t>
   </si>
   <si>
@@ -229,6 +205,87 @@
   </si>
   <si>
     <t>3;-5</t>
+  </si>
+  <si>
+    <t>Toy types</t>
+  </si>
+  <si>
+    <t>Toy Type ID</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>FK_ToyTypes</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Cost per unit</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>1-5 years; 5-10 years; teanagers; grown childs</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>ToyType</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>&lt;Toys Type; atr:type name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;age group; atr: age group&gt;</t>
+  </si>
+  <si>
+    <t>&lt;toys name; atr name&gt; count</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gift value Grouped by Age and By Toy Type </t>
+  </si>
+  <si>
+    <t>Toy Name</t>
+  </si>
+  <si>
+    <t>FK_Country</t>
+  </si>
+  <si>
+    <t>Country ID</t>
+  </si>
+  <si>
+    <t>Papki - po godini</t>
+  </si>
+  <si>
+    <t>Excely - po strani</t>
+  </si>
+  <si>
+    <t>Dostaveni igra4ki</t>
+  </si>
+  <si>
+    <t>Inventory report</t>
   </si>
 </sst>
 </file>
@@ -692,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F37"/>
+  <dimension ref="A3:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +767,7 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,16 +778,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -761,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -778,18 +835,18 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,15 +893,15 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,12 +951,12 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,68 +997,114 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>2011</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>22</v>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>2011</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +1114,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <f>B6*C6</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="9">
+        <f>B7*C7</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13">
+        <f>SUM(D6:D7)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,12 +1232,12 @@
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1043,16 +1248,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1063,16 +1265,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1080,38 +1279,35 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1119,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1147,23 +1343,23 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,10 +1398,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,12 +1409,12 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,16 +1471,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1332,15 +1528,15 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,7 +1578,7 @@
         <v>2011</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -1393,97 +1589,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <f>B6*C6</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="D7" s="9">
-        <f>B7*C7</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13">
-        <f>SUM(D6:D7)</f>
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1493,17 +1602,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1516,34 +1651,34 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1563,37 +1698,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1605,35 +1740,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1643,26 +1778,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>